--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H2">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I2">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J2">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.01381505678668</v>
+        <v>1.067233</v>
       </c>
       <c r="N2">
-        <v>2.01381505678668</v>
+        <v>3.201699</v>
       </c>
       <c r="O2">
-        <v>0.597192427135156</v>
+        <v>0.23609279392832</v>
       </c>
       <c r="P2">
-        <v>0.597192427135156</v>
+        <v>0.23609279392832</v>
       </c>
       <c r="Q2">
-        <v>62.5791279888321</v>
+        <v>42.33571831478634</v>
       </c>
       <c r="R2">
-        <v>62.5791279888321</v>
+        <v>381.021464833077</v>
       </c>
       <c r="S2">
-        <v>0.07593104680785327</v>
+        <v>0.03649385862176721</v>
       </c>
       <c r="T2">
-        <v>0.07593104680785327</v>
+        <v>0.0364938586217672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H3">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I3">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J3">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.221740177584964</v>
+        <v>2.034898666666666</v>
       </c>
       <c r="N3">
-        <v>0.221740177584964</v>
+        <v>6.104696</v>
       </c>
       <c r="O3">
-        <v>0.06575656210289839</v>
+        <v>0.4501593481220562</v>
       </c>
       <c r="P3">
-        <v>0.06575656210289839</v>
+        <v>0.4501593481220562</v>
       </c>
       <c r="Q3">
-        <v>6.890556760210834</v>
+        <v>80.72173250933422</v>
       </c>
       <c r="R3">
-        <v>6.890556760210834</v>
+        <v>726.4955925840079</v>
       </c>
       <c r="S3">
-        <v>0.008360729922365017</v>
+        <v>0.06958302849607904</v>
       </c>
       <c r="T3">
-        <v>0.008360729922365017</v>
+        <v>0.06958302849607903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H4">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I4">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J4">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.136582397124</v>
+        <v>0.2589606666666667</v>
       </c>
       <c r="N4">
-        <v>1.136582397124</v>
+        <v>0.776882</v>
       </c>
       <c r="O4">
-        <v>0.3370510107619456</v>
+        <v>0.0572871597025895</v>
       </c>
       <c r="P4">
-        <v>0.3370510107619456</v>
+        <v>0.0572871597025895</v>
       </c>
       <c r="Q4">
-        <v>35.3191992778961</v>
+        <v>10.27262635114289</v>
       </c>
       <c r="R4">
-        <v>35.3191992778961</v>
+        <v>92.45363716028599</v>
       </c>
       <c r="S4">
-        <v>0.04285492399421778</v>
+        <v>0.00885511782144285</v>
       </c>
       <c r="T4">
-        <v>0.04285492399421778</v>
+        <v>0.008855117821442849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.3664868297807</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H5">
-        <v>57.3664868297807</v>
+        <v>119.006023</v>
       </c>
       <c r="I5">
-        <v>0.2347217994613196</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J5">
-        <v>0.2347217994613196</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.01381505678668</v>
+        <v>1.159304</v>
       </c>
       <c r="N5">
-        <v>2.01381505678668</v>
+        <v>3.477912</v>
       </c>
       <c r="O5">
-        <v>0.597192427135156</v>
+        <v>0.2564606982470342</v>
       </c>
       <c r="P5">
-        <v>0.597192427135156</v>
+        <v>0.2564606982470342</v>
       </c>
       <c r="Q5">
-        <v>115.5254949327671</v>
+        <v>45.98805282933066</v>
       </c>
       <c r="R5">
-        <v>115.5254949327671</v>
+        <v>413.892475463976</v>
       </c>
       <c r="S5">
-        <v>0.1401740811218368</v>
+        <v>0.03964221147176784</v>
       </c>
       <c r="T5">
-        <v>0.1401740811218368</v>
+        <v>0.03964221147176784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.3664868297807</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H6">
-        <v>57.3664868297807</v>
+        <v>172.981738</v>
       </c>
       <c r="I6">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J6">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.221740177584964</v>
+        <v>1.067233</v>
       </c>
       <c r="N6">
-        <v>0.221740177584964</v>
+        <v>3.201699</v>
       </c>
       <c r="O6">
-        <v>0.06575656210289839</v>
+        <v>0.23609279392832</v>
       </c>
       <c r="P6">
-        <v>0.06575656210289839</v>
+        <v>0.23609279392832</v>
       </c>
       <c r="Q6">
-        <v>12.72045497706107</v>
+        <v>61.53727306365133</v>
       </c>
       <c r="R6">
-        <v>12.72045497706107</v>
+        <v>553.835457572862</v>
       </c>
       <c r="S6">
-        <v>0.01543449858318232</v>
+        <v>0.0530458117293742</v>
       </c>
       <c r="T6">
-        <v>0.01543449858318232</v>
+        <v>0.05304581172937418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.3664868297807</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H7">
-        <v>57.3664868297807</v>
+        <v>172.981738</v>
       </c>
       <c r="I7">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J7">
-        <v>0.2347217994613196</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.136582397124</v>
+        <v>2.034898666666666</v>
       </c>
       <c r="N7">
-        <v>1.136582397124</v>
+        <v>6.104696</v>
       </c>
       <c r="O7">
-        <v>0.3370510107619456</v>
+        <v>0.4501593481220562</v>
       </c>
       <c r="P7">
-        <v>0.3370510107619456</v>
+        <v>0.4501593481220562</v>
       </c>
       <c r="Q7">
-        <v>65.20173911557453</v>
+        <v>117.3334360046275</v>
       </c>
       <c r="R7">
-        <v>65.20173911557453</v>
+        <v>1056.000924041648</v>
       </c>
       <c r="S7">
-        <v>0.07911321975630047</v>
+        <v>0.1011427228734068</v>
       </c>
       <c r="T7">
-        <v>0.07911321975630047</v>
+        <v>0.1011427228734068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.7378119114083</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H8">
-        <v>61.7378119114083</v>
+        <v>172.981738</v>
       </c>
       <c r="I8">
-        <v>0.2526075956097666</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J8">
-        <v>0.2526075956097666</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.01381505678668</v>
+        <v>0.2589606666666667</v>
       </c>
       <c r="N8">
-        <v>2.01381505678668</v>
+        <v>0.776882</v>
       </c>
       <c r="O8">
-        <v>0.597192427135156</v>
+        <v>0.0572871597025895</v>
       </c>
       <c r="P8">
-        <v>0.597192427135156</v>
+        <v>0.0572871597025895</v>
       </c>
       <c r="Q8">
-        <v>124.3285352002581</v>
+        <v>14.93182206454622</v>
       </c>
       <c r="R8">
-        <v>124.3285352002581</v>
+        <v>134.386398580916</v>
       </c>
       <c r="S8">
-        <v>0.1508553431349725</v>
+        <v>0.01287139618931689</v>
       </c>
       <c r="T8">
-        <v>0.1508553431349725</v>
+        <v>0.01287139618931688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.7378119114083</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H9">
-        <v>61.7378119114083</v>
+        <v>172.981738</v>
       </c>
       <c r="I9">
-        <v>0.2526075956097666</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="J9">
-        <v>0.2526075956097666</v>
+        <v>0.2246820449144221</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.221740177584964</v>
+        <v>1.159304</v>
       </c>
       <c r="N9">
-        <v>0.221740177584964</v>
+        <v>3.477912</v>
       </c>
       <c r="O9">
-        <v>0.06575656210289839</v>
+        <v>0.2564606982470342</v>
       </c>
       <c r="P9">
-        <v>0.06575656210289839</v>
+        <v>0.2564606982470342</v>
       </c>
       <c r="Q9">
-        <v>13.68975337694278</v>
+        <v>66.84614026345065</v>
       </c>
       <c r="R9">
-        <v>13.68975337694278</v>
+        <v>601.6152623710559</v>
       </c>
       <c r="S9">
-        <v>0.01661060704837746</v>
+        <v>0.05762211412232419</v>
       </c>
       <c r="T9">
-        <v>0.01661060704837746</v>
+        <v>0.05762211412232419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.7378119114083</v>
+        <v>64.993678</v>
       </c>
       <c r="H10">
-        <v>61.7378119114083</v>
+        <v>194.981034</v>
       </c>
       <c r="I10">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J10">
-        <v>0.2526075956097666</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.136582397124</v>
+        <v>1.067233</v>
       </c>
       <c r="N10">
-        <v>1.136582397124</v>
+        <v>3.201699</v>
       </c>
       <c r="O10">
-        <v>0.3370510107619456</v>
+        <v>0.23609279392832</v>
       </c>
       <c r="P10">
-        <v>0.3370510107619456</v>
+        <v>0.23609279392832</v>
       </c>
       <c r="Q10">
-        <v>70.17011025545909</v>
+        <v>69.36339795297401</v>
       </c>
       <c r="R10">
-        <v>70.17011025545909</v>
+        <v>624.2705815767661</v>
       </c>
       <c r="S10">
-        <v>0.08514164542641665</v>
+        <v>0.05979201816299656</v>
       </c>
       <c r="T10">
-        <v>0.08514164542641665</v>
+        <v>0.05979201816299655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>94.2228289995552</v>
+        <v>64.993678</v>
       </c>
       <c r="H11">
-        <v>94.2228289995552</v>
+        <v>194.981034</v>
       </c>
       <c r="I11">
-        <v>0.3855239042044777</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J11">
-        <v>0.3855239042044777</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.01381505678668</v>
+        <v>2.034898666666666</v>
       </c>
       <c r="N11">
-        <v>2.01381505678668</v>
+        <v>6.104696</v>
       </c>
       <c r="O11">
-        <v>0.597192427135156</v>
+        <v>0.4501593481220562</v>
       </c>
       <c r="P11">
-        <v>0.597192427135156</v>
+        <v>0.4501593481220562</v>
       </c>
       <c r="Q11">
-        <v>189.7473517323409</v>
+        <v>132.2555487039627</v>
       </c>
       <c r="R11">
-        <v>189.7473517323409</v>
+        <v>1190.299938335664</v>
       </c>
       <c r="S11">
-        <v>0.2302319560704934</v>
+        <v>0.1140057494822506</v>
       </c>
       <c r="T11">
-        <v>0.2302319560704934</v>
+        <v>0.1140057494822506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>94.2228289995552</v>
+        <v>64.993678</v>
       </c>
       <c r="H12">
-        <v>94.2228289995552</v>
+        <v>194.981034</v>
       </c>
       <c r="I12">
-        <v>0.3855239042044777</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J12">
-        <v>0.3855239042044777</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.221740177584964</v>
+        <v>0.2589606666666667</v>
       </c>
       <c r="N12">
-        <v>0.221740177584964</v>
+        <v>0.776882</v>
       </c>
       <c r="O12">
-        <v>0.06575656210289839</v>
+        <v>0.0572871597025895</v>
       </c>
       <c r="P12">
-        <v>0.06575656210289839</v>
+        <v>0.0572871597025895</v>
       </c>
       <c r="Q12">
-        <v>20.89298683491907</v>
+        <v>16.83080618399867</v>
       </c>
       <c r="R12">
-        <v>20.89298683491907</v>
+        <v>151.477255655988</v>
       </c>
       <c r="S12">
-        <v>0.02535072654897359</v>
+        <v>0.01450834155693745</v>
       </c>
       <c r="T12">
-        <v>0.02535072654897359</v>
+        <v>0.01450834155693745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>94.2228289995552</v>
+        <v>64.993678</v>
       </c>
       <c r="H13">
-        <v>94.2228289995552</v>
+        <v>194.981034</v>
       </c>
       <c r="I13">
-        <v>0.3855239042044777</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="J13">
-        <v>0.3855239042044777</v>
+        <v>0.2532564301015895</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.136582397124</v>
+        <v>1.159304</v>
       </c>
       <c r="N13">
-        <v>1.136582397124</v>
+        <v>3.477912</v>
       </c>
       <c r="O13">
-        <v>0.3370510107619456</v>
+        <v>0.2564606982470342</v>
       </c>
       <c r="P13">
-        <v>0.3370510107619456</v>
+        <v>0.2564606982470342</v>
       </c>
       <c r="Q13">
-        <v>107.0920088481192</v>
+        <v>75.347430880112</v>
       </c>
       <c r="R13">
-        <v>107.0920088481192</v>
+        <v>678.126877921008</v>
       </c>
       <c r="S13">
-        <v>0.1299412215850107</v>
+        <v>0.06495032089940485</v>
       </c>
       <c r="T13">
-        <v>0.1299412215850107</v>
+        <v>0.06495032089940485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>94.308965</v>
+      </c>
+      <c r="H14">
+        <v>282.926895</v>
+      </c>
+      <c r="I14">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J14">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.067233</v>
+      </c>
+      <c r="N14">
+        <v>3.201699</v>
+      </c>
+      <c r="O14">
+        <v>0.23609279392832</v>
+      </c>
+      <c r="P14">
+        <v>0.23609279392832</v>
+      </c>
+      <c r="Q14">
+        <v>100.649639643845</v>
+      </c>
+      <c r="R14">
+        <v>905.846756794605</v>
+      </c>
+      <c r="S14">
+        <v>0.08676110541418207</v>
+      </c>
+      <c r="T14">
+        <v>0.08676110541418204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>94.308965</v>
+      </c>
+      <c r="H15">
+        <v>282.926895</v>
+      </c>
+      <c r="I15">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J15">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.034898666666666</v>
+      </c>
+      <c r="N15">
+        <v>6.104696</v>
+      </c>
+      <c r="O15">
+        <v>0.4501593481220562</v>
+      </c>
+      <c r="P15">
+        <v>0.4501593481220562</v>
+      </c>
+      <c r="Q15">
+        <v>191.9091871332133</v>
+      </c>
+      <c r="R15">
+        <v>1727.18268419892</v>
+      </c>
+      <c r="S15">
+        <v>0.1654278472703198</v>
+      </c>
+      <c r="T15">
+        <v>0.1654278472703197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>94.308965</v>
+      </c>
+      <c r="H16">
+        <v>282.926895</v>
+      </c>
+      <c r="I16">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J16">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2589606666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.776882</v>
+      </c>
+      <c r="O16">
+        <v>0.0572871597025895</v>
+      </c>
+      <c r="P16">
+        <v>0.0572871597025895</v>
+      </c>
+      <c r="Q16">
+        <v>24.42231244904334</v>
+      </c>
+      <c r="R16">
+        <v>219.80081204139</v>
+      </c>
+      <c r="S16">
+        <v>0.02105230413489232</v>
+      </c>
+      <c r="T16">
+        <v>0.02105230413489231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>94.308965</v>
+      </c>
+      <c r="H17">
+        <v>282.926895</v>
+      </c>
+      <c r="I17">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J17">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.159304</v>
+      </c>
+      <c r="N17">
+        <v>3.477912</v>
+      </c>
+      <c r="O17">
+        <v>0.2564606982470342</v>
+      </c>
+      <c r="P17">
+        <v>0.2564606982470342</v>
+      </c>
+      <c r="Q17">
+        <v>109.33276036036</v>
+      </c>
+      <c r="R17">
+        <v>983.99484324324</v>
+      </c>
+      <c r="S17">
+        <v>0.09424605175353733</v>
+      </c>
+      <c r="T17">
+        <v>0.09424605175353731</v>
       </c>
     </row>
   </sheetData>
